--- a/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>437533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>421749</v>
+        <v>421158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>449920</v>
+        <v>449518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8971712009765864</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8648040631093658</v>
+        <v>0.8635936452426176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9225709771383878</v>
+        <v>0.9217455709573217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>426</v>
@@ -765,19 +765,19 @@
         <v>407697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>393343</v>
+        <v>391662</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>420685</v>
+        <v>419779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8773648730688423</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8464760237439191</v>
+        <v>0.8428580940841811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9053170584833541</v>
+        <v>0.9033654314678904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>870</v>
@@ -786,19 +786,19 @@
         <v>845230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>823193</v>
+        <v>824392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>863525</v>
+        <v>863107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8875071875950767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8643681343090382</v>
+        <v>0.8656269887832785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9067174399538908</v>
+        <v>0.9062783319658873</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>50148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37761</v>
+        <v>38163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65932</v>
+        <v>66523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1028287990234136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07742902286161224</v>
+        <v>0.07825442904267833</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.135195936890634</v>
+        <v>0.1364063547573824</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -836,19 +836,19 @@
         <v>56986</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43998</v>
+        <v>44904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71340</v>
+        <v>73021</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1226351269311577</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09468294151664584</v>
+        <v>0.09663456853210964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1535239762560809</v>
+        <v>0.1571419059158188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -857,19 +857,19 @@
         <v>107134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88839</v>
+        <v>89257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>129171</v>
+        <v>127972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1124928124049233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09328256004610926</v>
+        <v>0.09372166803411279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1356318656909618</v>
+        <v>0.1343730112167216</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>639030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>617436</v>
+        <v>619021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>657185</v>
+        <v>656144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8798979331558847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8501645425959706</v>
+        <v>0.8523472283619414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9048955698331682</v>
+        <v>0.9034629469715386</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>496</v>
@@ -982,19 +982,19 @@
         <v>525203</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>505534</v>
+        <v>507898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>542602</v>
+        <v>543481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8458377031947314</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.814160415196357</v>
+        <v>0.8179679729672171</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8738584520311301</v>
+        <v>0.8752735306656066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1108</v>
@@ -1003,19 +1003,19 @@
         <v>1164234</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1137162</v>
+        <v>1139778</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1187943</v>
+        <v>1187570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8641992998949011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8441039365266831</v>
+        <v>0.8460459079566736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8817984620422152</v>
+        <v>0.8815218269159162</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>87225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69070</v>
+        <v>70111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108819</v>
+        <v>107234</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1201020668441153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09510443016683193</v>
+        <v>0.09653705302846143</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1498354574040295</v>
+        <v>0.147652771638059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -1053,19 +1053,19 @@
         <v>95724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78325</v>
+        <v>77446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>115393</v>
+        <v>113029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1541622968052686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1261415479688699</v>
+        <v>0.1247264693343934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.185839584803643</v>
+        <v>0.1820320270327829</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>173</v>
@@ -1074,19 +1074,19 @@
         <v>182948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>159239</v>
+        <v>159612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>210020</v>
+        <v>207404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1358007001050989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1182015379577849</v>
+        <v>0.1184781730840838</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1558960634733169</v>
+        <v>0.153954092043327</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>524373</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>503796</v>
+        <v>505975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>540529</v>
+        <v>542363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8377051080600086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8048325827641896</v>
+        <v>0.8083131491639262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8635139130103523</v>
+        <v>0.8664451480448865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>549</v>
@@ -1199,19 +1199,19 @@
         <v>572388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>551964</v>
+        <v>551599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>590236</v>
+        <v>590586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8333024559700016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8035690000026463</v>
+        <v>0.803037544887376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8592866475062262</v>
+        <v>0.8597961663130768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1052</v>
@@ -1220,19 +1220,19 @@
         <v>1096761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1068929</v>
+        <v>1069358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1124897</v>
+        <v>1122087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8354016226304861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8142017332203273</v>
+        <v>0.8145283578283253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8568329254619108</v>
+        <v>0.8546925914419182</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>101591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85435</v>
+        <v>83601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122168</v>
+        <v>119989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1622948919399914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1364860869896475</v>
+        <v>0.1335548519551135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1951674172358105</v>
+        <v>0.1916868508360738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -1270,19 +1270,19 @@
         <v>114503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96655</v>
+        <v>96305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134927</v>
+        <v>135292</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1666975440299983</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1407133524937736</v>
+        <v>0.1402038336869232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1964309999973536</v>
+        <v>0.1969624551126241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -1291,19 +1291,19 @@
         <v>216094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187958</v>
+        <v>190768</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>243926</v>
+        <v>243497</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1645983773695139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1431670745380894</v>
+        <v>0.1453074085580817</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1857982667796726</v>
+        <v>0.1854716421716737</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>423776</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>403577</v>
+        <v>405559</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>441147</v>
+        <v>440616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8271540799640748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.787728955521339</v>
+        <v>0.7915977159707082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8610603138029627</v>
+        <v>0.8600231805896961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -1416,19 +1416,19 @@
         <v>404444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>385295</v>
+        <v>383689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>422360</v>
+        <v>421668</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7890287377101841</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7516715051101135</v>
+        <v>0.7485392210366971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8239818636091611</v>
+        <v>0.8226323861975977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>790</v>
@@ -1437,19 +1437,19 @@
         <v>828219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>802165</v>
+        <v>801741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>852572</v>
+        <v>853210</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8080866943476427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7826660409089249</v>
+        <v>0.7822519795870649</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.831846919669638</v>
+        <v>0.8324696411492769</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>88554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71183</v>
+        <v>71714</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108753</v>
+        <v>106771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1728459200359252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1389396861970373</v>
+        <v>0.139976819410304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2122710444786609</v>
+        <v>0.208402284029292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -1487,19 +1487,19 @@
         <v>108140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90224</v>
+        <v>90916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127289</v>
+        <v>128895</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2109712622898159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1760181363908387</v>
+        <v>0.1773676138024024</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2483284948898861</v>
+        <v>0.2514607789633029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>186</v>
@@ -1508,19 +1508,19 @@
         <v>196695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172342</v>
+        <v>171704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222749</v>
+        <v>223173</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1919133056523573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1681530803303622</v>
+        <v>0.1675303588507231</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2173339590910752</v>
+        <v>0.2177480204129349</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>300635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282370</v>
+        <v>283073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315507</v>
+        <v>314938</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7885553576841254</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7406461951059639</v>
+        <v>0.7424906842360647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8275645161170541</v>
+        <v>0.8260709499540888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>288</v>
@@ -1633,19 +1633,19 @@
         <v>293759</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>274702</v>
+        <v>276504</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>309504</v>
+        <v>313419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.732807629360134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6852674391939859</v>
+        <v>0.6897641452811395</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7720857737374164</v>
+        <v>0.7818516611696915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>595</v>
@@ -1654,19 +1654,19 @@
         <v>594394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>571827</v>
+        <v>569492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>616258</v>
+        <v>616597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7599822673409554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7311284560915249</v>
+        <v>0.728142833244836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7879366924134815</v>
+        <v>0.7883703888490378</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>80613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65741</v>
+        <v>66310</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98878</v>
+        <v>98175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2114446423158745</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.172435483882946</v>
+        <v>0.1739290500459111</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2593538048940362</v>
+        <v>0.2575093157639353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -1704,19 +1704,19 @@
         <v>107109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91364</v>
+        <v>87449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126166</v>
+        <v>124364</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.267192370639866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2279142262625837</v>
+        <v>0.2181483388303085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3147325608060141</v>
+        <v>0.3102358547188603</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>184</v>
@@ -1725,19 +1725,19 @@
         <v>187722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>165858</v>
+        <v>165519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210289</v>
+        <v>212624</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2400177326590446</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2120633075865185</v>
+        <v>0.2116296111509622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2688715439084752</v>
+        <v>0.271857166755164</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>186070</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>171537</v>
+        <v>169186</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>204286</v>
+        <v>200821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.642124625453439</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5919702890640922</v>
+        <v>0.583857249502049</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.704986777044995</v>
+        <v>0.6930275636812728</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -1850,19 +1850,19 @@
         <v>192246</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>174464</v>
+        <v>174506</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>208195</v>
+        <v>208938</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5684393234339936</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5158630687551657</v>
+        <v>0.5159861481235464</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6155984212556127</v>
+        <v>0.6177962851974582</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>401</v>
@@ -1871,19 +1871,19 @@
         <v>378315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>353942</v>
+        <v>355607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>402307</v>
+        <v>402923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6024408626956943</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5636273221335527</v>
+        <v>0.5662791363442115</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6406462546965234</v>
+        <v>0.6416262516153542</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>103703</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85487</v>
+        <v>88952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118236</v>
+        <v>120587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.357875374546561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.295013222955005</v>
+        <v>0.3069724363187272</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4080297109359076</v>
+        <v>0.4161427504979511</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -1921,19 +1921,19 @@
         <v>145953</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130004</v>
+        <v>129261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163735</v>
+        <v>163693</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4315606765660064</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3844015787443875</v>
+        <v>0.3822037148025418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4841369312448343</v>
+        <v>0.4840138518764538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -1942,19 +1942,19 @@
         <v>249656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>225664</v>
+        <v>225048</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>274029</v>
+        <v>272364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3975591373043057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3593537453034767</v>
+        <v>0.3583737483846459</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4363726778664472</v>
+        <v>0.4337208636557885</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>119807</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>105748</v>
+        <v>104846</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>133636</v>
+        <v>132404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5805937183095271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5124595507597562</v>
+        <v>0.5080891164454744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6476085553393657</v>
+        <v>0.6416390419655691</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -2067,19 +2067,19 @@
         <v>154403</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135803</v>
+        <v>134567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>174699</v>
+        <v>174617</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4636900624831665</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4078331824172429</v>
+        <v>0.4041214554100185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5246435723074977</v>
+        <v>0.5243961942924339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>260</v>
@@ -2088,19 +2088,19 @@
         <v>274210</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>250605</v>
+        <v>248718</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>298915</v>
+        <v>297676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5084178112883276</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.464650880132159</v>
+        <v>0.4611521525243963</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5542244593066706</v>
+        <v>0.5519272179214342</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>86546</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72717</v>
+        <v>73949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100605</v>
+        <v>101507</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4194062816904729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3523914446606344</v>
+        <v>0.3583609580344312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.487540449240244</v>
+        <v>0.4919108835545258</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>155</v>
@@ -2138,19 +2138,19 @@
         <v>178584</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>158288</v>
+        <v>158370</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>197184</v>
+        <v>198420</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5363099375168335</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4753564276925024</v>
+        <v>0.4756038057075662</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5921668175827572</v>
+        <v>0.5958785445899816</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>245</v>
@@ -2159,19 +2159,19 @@
         <v>265130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>240425</v>
+        <v>241664</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>288735</v>
+        <v>290622</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4915821887116724</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4457755406933294</v>
+        <v>0.4480727820785658</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5353491198678411</v>
+        <v>0.5388478474756037</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>2631226</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2496</v>
@@ -2284,19 +2284,19 @@
         <v>2550138</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5076</v>
@@ -2305,19 +2305,19 @@
         <v>5181365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>598379</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1852792309361111</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>779</v>
@@ -2355,19 +2355,19 @@
         <v>807000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2403832234786688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1365</v>
@@ -2376,19 +2376,19 @@
         <v>1405378</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2133646904423134</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>380484</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>364003</v>
+        <v>364700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>394921</v>
+        <v>394617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8413538358464639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8049100471756431</v>
+        <v>0.8064514737571178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8732774844046127</v>
+        <v>0.8726073022648655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -2744,19 +2744,19 @@
         <v>332874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>315736</v>
+        <v>315180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>349332</v>
+        <v>350633</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7754472519806361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7355232456830947</v>
+        <v>0.7342291183762177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8137869174310776</v>
+        <v>0.816817133763825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>696</v>
@@ -2765,19 +2765,19 @@
         <v>713357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>689268</v>
+        <v>688880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>734321</v>
+        <v>735436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.809258903337414</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.781931019824889</v>
+        <v>0.7814911873792276</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8330408492787974</v>
+        <v>0.8343060633975091</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>71744</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57307</v>
+        <v>57611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88225</v>
+        <v>87528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1586461641535361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1267225155953873</v>
+        <v>0.1273926977351351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1950899528243569</v>
+        <v>0.1935485262428826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -2815,19 +2815,19 @@
         <v>96393</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79935</v>
+        <v>78634</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113531</v>
+        <v>114087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2245527480193639</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1862130825689226</v>
+        <v>0.183182866236175</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2644767543169053</v>
+        <v>0.2657708816237822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -2836,19 +2836,19 @@
         <v>168137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147173</v>
+        <v>146058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192226</v>
+        <v>192614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.190741096662586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1669591507212023</v>
+        <v>0.1656939366024911</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2180689801751109</v>
+        <v>0.2185088126207727</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>552565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>531072</v>
+        <v>530886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>572105</v>
+        <v>573544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8053121759146241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.773988626716243</v>
+        <v>0.7737177124356437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8337906910103704</v>
+        <v>0.8358878393960033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>451</v>
@@ -2961,19 +2961,19 @@
         <v>483010</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>460388</v>
+        <v>463160</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>503166</v>
+        <v>502188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7928717053003357</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7557362117006112</v>
+        <v>0.7602867072276733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8259573525512364</v>
+        <v>0.824351487973224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>989</v>
@@ -2982,19 +2982,19 @@
         <v>1035575</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1005621</v>
+        <v>1002188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1064501</v>
+        <v>1063492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.799461498185293</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7763370504639936</v>
+        <v>0.7736865652695343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8217922567503567</v>
+        <v>0.8210133600060679</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>133585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>114045</v>
+        <v>112606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>155078</v>
+        <v>155264</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1946878240853758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1662093089896305</v>
+        <v>0.1641121606039971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.226011373283757</v>
+        <v>0.2262822875643564</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>119</v>
@@ -3032,19 +3032,19 @@
         <v>126181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106025</v>
+        <v>107003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148803</v>
+        <v>146031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2071282946996643</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1740426474487636</v>
+        <v>0.1756485120267754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2442637882993888</v>
+        <v>0.2397132927723265</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>247</v>
@@ -3053,19 +3053,19 @@
         <v>259766</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>230840</v>
+        <v>231849</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>289720</v>
+        <v>293153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.200538501814707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1782077432496433</v>
+        <v>0.1789866399939319</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2236629495360065</v>
+        <v>0.2263134347304656</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>533577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>509730</v>
+        <v>512341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>554363</v>
+        <v>555607</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7858015752991578</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7506819095493439</v>
+        <v>0.7545261357240107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8164120591642576</v>
+        <v>0.818245097257753</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>512</v>
@@ -3178,19 +3178,19 @@
         <v>547059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>524996</v>
+        <v>524079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>572305</v>
+        <v>568386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7717027711278747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7405789679733802</v>
+        <v>0.7392857679911189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8073149621361164</v>
+        <v>0.8017868856644447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1020</v>
@@ -3199,19 +3199,19 @@
         <v>1080637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1047007</v>
+        <v>1046082</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1110307</v>
+        <v>1108168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7786004304695217</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7543705422966296</v>
+        <v>0.7537038807580403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7999775955783103</v>
+        <v>0.7984368452785215</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>145446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>124660</v>
+        <v>123416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>169293</v>
+        <v>166682</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2141984247008422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1835879408357424</v>
+        <v>0.1817549027422471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.249318090450656</v>
+        <v>0.2454738642759893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -3249,19 +3249,19 @@
         <v>161840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136594</v>
+        <v>140513</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183903</v>
+        <v>184820</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2282972288721253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1926850378638836</v>
+        <v>0.1982131143355554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2594210320266201</v>
+        <v>0.2607142320088814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>294</v>
@@ -3270,19 +3270,19 @@
         <v>307285</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>277615</v>
+        <v>279754</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>340915</v>
+        <v>341840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2213995695304783</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2000224044216896</v>
+        <v>0.2015631547214785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2456294577033704</v>
+        <v>0.2462961192419597</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>450739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>424972</v>
+        <v>427146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>471946</v>
+        <v>474648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7358217258314613</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6937577632644478</v>
+        <v>0.6973066041713006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7704421468156536</v>
+        <v>0.77485324309064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>358</v>
@@ -3395,19 +3395,19 @@
         <v>411460</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>385208</v>
+        <v>386938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>435262</v>
+        <v>436567</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6677396313424673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6251360445935688</v>
+        <v>0.6279424513312799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7063660314019947</v>
+        <v>0.7084835362183144</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>764</v>
@@ -3416,19 +3416,19 @@
         <v>862199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>823578</v>
+        <v>828220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>894168</v>
+        <v>895890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7016800000777983</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6702494889128968</v>
+        <v>0.6740271892075149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7276971515175326</v>
+        <v>0.7290986711069579</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>161826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140619</v>
+        <v>137917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187593</v>
+        <v>185419</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2641782741685387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2295578531843463</v>
+        <v>0.22514675690936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3062422367355521</v>
+        <v>0.3026933958286994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -3466,19 +3466,19 @@
         <v>204739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180937</v>
+        <v>179632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>230991</v>
+        <v>229261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3322603686575327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2936339685980052</v>
+        <v>0.2915164637816856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3748639554064312</v>
+        <v>0.3720575486687201</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>321</v>
@@ -3487,19 +3487,19 @@
         <v>366565</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334596</v>
+        <v>332874</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>405186</v>
+        <v>400544</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2983199999222017</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2723028484824677</v>
+        <v>0.2709013288930424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3297505110871033</v>
+        <v>0.3259728107924853</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>314425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>294688</v>
+        <v>293783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>332028</v>
+        <v>334126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7362199301870102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6900073609603788</v>
+        <v>0.6878869626960546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7774372302853518</v>
+        <v>0.7823503486226887</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>238</v>
@@ -3612,19 +3612,19 @@
         <v>263676</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242877</v>
+        <v>242207</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>285711</v>
+        <v>284467</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5915318649711986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5448713307928766</v>
+        <v>0.5433680175845147</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6409661734540162</v>
+        <v>0.638174484066712</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>523</v>
@@ -3633,19 +3633,19 @@
         <v>578101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>551017</v>
+        <v>545636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>609603</v>
+        <v>605939</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6623283115617999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6312982540265348</v>
+        <v>0.6251332080640464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6984204153010066</v>
+        <v>0.6942222529338961</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>112655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95052</v>
+        <v>92954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132392</v>
+        <v>133297</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2637800698129898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2225627697146479</v>
+        <v>0.2176496513773117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3099926390396204</v>
+        <v>0.3121130373039455</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -3683,19 +3683,19 @@
         <v>182075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160040</v>
+        <v>161284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202874</v>
+        <v>203544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4084681350288014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3590338265459838</v>
+        <v>0.361825515933288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4551286692071234</v>
+        <v>0.4566319824154853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>272</v>
@@ -3704,19 +3704,19 @@
         <v>294730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263228</v>
+        <v>266892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321814</v>
+        <v>327195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3376716884382001</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3015795846989933</v>
+        <v>0.3057777470661038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3687017459734652</v>
+        <v>0.3748667919359535</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>167781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>149321</v>
+        <v>149911</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186297</v>
+        <v>186780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5416038509065704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4820119477065282</v>
+        <v>0.483918304656993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6013726889176414</v>
+        <v>0.602930891660416</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -3829,19 +3829,19 @@
         <v>189004</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>170403</v>
+        <v>172194</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>207485</v>
+        <v>207289</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.535262540037741</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4825840774332606</v>
+        <v>0.4876570130219505</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5876013390973639</v>
+        <v>0.5870457494899158</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>334</v>
@@ -3850,19 +3850,19 @@
         <v>356786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329602</v>
+        <v>328963</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>381758</v>
+        <v>381427</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5382259966363339</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4972178559273637</v>
+        <v>0.4962536018205201</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.575898037971439</v>
+        <v>0.5753985272007932</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>142005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123489</v>
+        <v>123006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160465</v>
+        <v>159875</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4583961490934297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3986273110823586</v>
+        <v>0.3970691083395839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5179880522934718</v>
+        <v>0.516081695343007</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -3900,19 +3900,19 @@
         <v>164101</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>145620</v>
+        <v>145816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182702</v>
+        <v>180911</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.464737459962259</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4123986609026361</v>
+        <v>0.4129542505100841</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5174159225667394</v>
+        <v>0.5123429869780496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>291</v>
@@ -3921,19 +3921,19 @@
         <v>306106</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>281134</v>
+        <v>281465</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333290</v>
+        <v>333929</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4617740033636662</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4241019620285611</v>
+        <v>0.4246014727992068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5027821440726365</v>
+        <v>0.5037463981794799</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>129471</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112652</v>
+        <v>112762</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>146981</v>
+        <v>146378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5247506900072453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4565819468054592</v>
+        <v>0.4570309936360902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5957221858721998</v>
+        <v>0.5932749122297366</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>150</v>
@@ -4046,19 +4046,19 @@
         <v>168113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148219</v>
+        <v>149590</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>190993</v>
+        <v>188792</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4349107401708385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3834447240474971</v>
+        <v>0.3869918169522913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4941017335946581</v>
+        <v>0.4884089138419014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -4067,19 +4067,19 @@
         <v>297583</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>272222</v>
+        <v>271248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>323334</v>
+        <v>326272</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.469913068744315</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4298656073689479</v>
+        <v>0.428327676508127</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5105752787895743</v>
+        <v>0.5152161029586891</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>117257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99747</v>
+        <v>100350</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>134076</v>
+        <v>133966</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4752493099927548</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4042778141278002</v>
+        <v>0.4067250877702635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.543418053194541</v>
+        <v>0.5429690063639099</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -4117,19 +4117,19 @@
         <v>218432</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>195552</v>
+        <v>197753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>238326</v>
+        <v>236955</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5650892598291615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.505898266405342</v>
+        <v>0.5115910861580986</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6165552759525031</v>
+        <v>0.6130081830477087</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>302</v>
@@ -4138,19 +4138,19 @@
         <v>335690</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>309939</v>
+        <v>307001</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>361051</v>
+        <v>362025</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.530086931255685</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4894247212104257</v>
+        <v>0.4847838970413109</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5701343926310521</v>
+        <v>0.5716723234918731</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2529041</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.740880895170011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2219</v>
@@ -4263,19 +4263,19 @@
         <v>2395197</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6749014550050187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4591</v>
@@ -4284,19 +4284,19 @@
         <v>4924238</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7072496336131888</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>884519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>835318</v>
+        <v>835822</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>937683</v>
+        <v>939353</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.259119104829989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2447058896248633</v>
+        <v>0.2448535158396208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2746936813146051</v>
+        <v>0.2751829376834246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1070</v>
@@ -4334,19 +4334,19 @@
         <v>1153761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1101597</v>
+        <v>1098845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1215679</v>
+        <v>1211578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3250985449949812</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3104001888165699</v>
+        <v>0.309624652132137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3425454331336784</v>
+        <v>0.3413898471918803</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1895</v>
@@ -4355,19 +4355,19 @@
         <v>2038279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1958411</v>
+        <v>1965428</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2116837</v>
+        <v>2122562</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2927503663868112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2812791370273909</v>
+        <v>0.2822870209652711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3040333240577391</v>
+        <v>0.3048555372280405</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>349857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332422</v>
+        <v>333356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365415</v>
+        <v>364997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8340584422573564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7924936474062768</v>
+        <v>0.7947202051816049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8711494714262632</v>
+        <v>0.8701541693034854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>328</v>
@@ -4723,19 +4723,19 @@
         <v>320942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>304242</v>
+        <v>305786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>334275</v>
+        <v>335252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8129092350406254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.770608812237801</v>
+        <v>0.7745207257525117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8466787876726908</v>
+        <v>0.849155290991916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>657</v>
@@ -4744,19 +4744,19 @@
         <v>670799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>648372</v>
+        <v>650274</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>692567</v>
+        <v>690738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8238040319790209</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.796261700559593</v>
+        <v>0.7985980875210107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8505373288620932</v>
+        <v>0.8482907932055959</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>69606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54048</v>
+        <v>54466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87041</v>
+        <v>86107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1659415577426436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1288505285737368</v>
+        <v>0.1298458306965147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2075063525937234</v>
+        <v>0.2052797948183951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -4794,19 +4794,19 @@
         <v>73865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>60532</v>
+        <v>59555</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90565</v>
+        <v>89021</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1870907649593746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1533212123273092</v>
+        <v>0.1508447090080841</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2293911877621991</v>
+        <v>0.2254792742474885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>139</v>
@@ -4815,19 +4815,19 @@
         <v>143471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121703</v>
+        <v>123532</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165898</v>
+        <v>163996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1761959680209792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.149462671137907</v>
+        <v>0.1517092067944042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2037382994404071</v>
+        <v>0.2014019124789894</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>486594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>466410</v>
+        <v>465291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>503769</v>
+        <v>503097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8240436804406666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.789861379726011</v>
+        <v>0.7879663628629384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8531287822319634</v>
+        <v>0.8519906300299238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>488</v>
@@ -4940,19 +4940,19 @@
         <v>474644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>457160</v>
+        <v>457375</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>489529</v>
+        <v>491348</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8449906497718008</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8138654178997937</v>
+        <v>0.8142478712326106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.871489136731906</v>
+        <v>0.8747280208395528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>959</v>
@@ -4961,19 +4961,19 @@
         <v>961238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>935533</v>
+        <v>935142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>988423</v>
+        <v>986423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8342555447353012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8119456321420968</v>
+        <v>0.8116067677785911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8578489507537398</v>
+        <v>0.8561127528292544</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>103902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86727</v>
+        <v>87399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>124086</v>
+        <v>125205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1759563195593334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1468712177680365</v>
+        <v>0.148009369970076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2101386202739892</v>
+        <v>0.2120336371370614</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -5011,19 +5011,19 @@
         <v>87071</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72186</v>
+        <v>70367</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104555</v>
+        <v>104340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1550093502281992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1285108632680942</v>
+        <v>0.1252719791604471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1861345821002066</v>
+        <v>0.1857521287673894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -5032,19 +5032,19 @@
         <v>190973</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>163788</v>
+        <v>165788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>216678</v>
+        <v>217069</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1657444552646988</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1421510492462604</v>
+        <v>0.1438872471707456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1880543678579033</v>
+        <v>0.1883932322214091</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>537045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>514513</v>
+        <v>515155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>557432</v>
+        <v>556318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8045497714671609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7707950824639369</v>
+        <v>0.7717567504376012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8350912298592538</v>
+        <v>0.8334230241881141</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>527</v>
@@ -5157,19 +5157,19 @@
         <v>522811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>499474</v>
+        <v>501091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>542219</v>
+        <v>542672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.790477826858451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7551925870615378</v>
+        <v>0.7576372021553751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.819823041862892</v>
+        <v>0.8205065187844159</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1043</v>
@@ -5178,19 +5178,19 @@
         <v>1059856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1028810</v>
+        <v>1027698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1087191</v>
+        <v>1086628</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7975462206806953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7741841269974087</v>
+        <v>0.773347004860435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8181158711448739</v>
+        <v>0.8176921717855857</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>130465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110078</v>
+        <v>111192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152997</v>
+        <v>152355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1954502285328391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1649087701407461</v>
+        <v>0.1665769758118859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2292049175360631</v>
+        <v>0.2282432495623988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -5228,19 +5228,19 @@
         <v>138575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119167</v>
+        <v>118714</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161912</v>
+        <v>160295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.209522173141549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1801769581371079</v>
+        <v>0.1794934812155841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2448074129384621</v>
+        <v>0.2423627978446248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>259</v>
@@ -5249,19 +5249,19 @@
         <v>269040</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>241705</v>
+        <v>242268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>300086</v>
+        <v>301198</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2024537793193047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1818841288551262</v>
+        <v>0.1823078282144143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2258158730025913</v>
+        <v>0.2266529951395652</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>510378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>488177</v>
+        <v>487834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>533256</v>
+        <v>529186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7927728564357961</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7582879184245054</v>
+        <v>0.7577557325994214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8283104760251574</v>
+        <v>0.8219879281632512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>438</v>
@@ -5374,19 +5374,19 @@
         <v>468501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>446332</v>
+        <v>443175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>494089</v>
+        <v>490223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7252193388964343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6909024613653078</v>
+        <v>0.686015771695243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7648285907678811</v>
+        <v>0.7588437695206648</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>898</v>
@@ -5395,19 +5395,19 @@
         <v>978878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>944928</v>
+        <v>944703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1009931</v>
+        <v>1011930</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7589378305426644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7326161550090715</v>
+        <v>0.7324411182685261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7830132904324796</v>
+        <v>0.7845632450753383</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>133410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110532</v>
+        <v>114602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>155611</v>
+        <v>155954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2072271435642039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1716895239748426</v>
+        <v>0.1780120718367489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2417120815754948</v>
+        <v>0.2422442674005786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>161</v>
@@ -5445,19 +5445,19 @@
         <v>177512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>151924</v>
+        <v>155790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199681</v>
+        <v>202838</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2747806611035657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2351714092321189</v>
+        <v>0.2411562304793352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3090975386346923</v>
+        <v>0.3139842283047569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>281</v>
@@ -5466,19 +5466,19 @@
         <v>310922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>279869</v>
+        <v>277870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>344872</v>
+        <v>345097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2410621694573357</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2169867095675205</v>
+        <v>0.2154367549246618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2673838449909285</v>
+        <v>0.267558881731474</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>358950</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>337483</v>
+        <v>338442</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>378015</v>
+        <v>379796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.752952005877462</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7079208227009897</v>
+        <v>0.7099319818938202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7929441023259753</v>
+        <v>0.7966788577498823</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>283</v>
@@ -5591,19 +5591,19 @@
         <v>324281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>301782</v>
+        <v>301066</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>345331</v>
+        <v>345938</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6540515602376643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.608673344037728</v>
+        <v>0.6072288072680078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6965080048216911</v>
+        <v>0.6977324943807313</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>604</v>
@@ -5612,19 +5612,19 @@
         <v>683232</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>652097</v>
+        <v>648961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>712766</v>
+        <v>711042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7025316600678148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6705177764578274</v>
+        <v>0.6672930491605468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7329002559365809</v>
+        <v>0.7311273317049564</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>117774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98709</v>
+        <v>96928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139241</v>
+        <v>138282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.247047994122538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2070558976740247</v>
+        <v>0.2033211422501176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2920791772990103</v>
+        <v>0.2900680181061798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>149</v>
@@ -5662,19 +5662,19 @@
         <v>171522</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150472</v>
+        <v>149865</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194021</v>
+        <v>194737</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3459484397623356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3034919951783084</v>
+        <v>0.3022675056192687</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3913266559622717</v>
+        <v>0.3927711927319922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -5683,19 +5683,19 @@
         <v>289296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>259762</v>
+        <v>261486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>320431</v>
+        <v>323567</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2974683399321852</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.267099744063419</v>
+        <v>0.2688726682950435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3294822235421724</v>
+        <v>0.3327069508394533</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>211552</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>193610</v>
+        <v>193725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229808</v>
+        <v>229582</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6327647510447024</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5790984307903578</v>
+        <v>0.5794417024990463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6873699355467521</v>
+        <v>0.6866938576118928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>185</v>
@@ -5808,19 +5808,19 @@
         <v>199374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>178804</v>
+        <v>179435</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>218986</v>
+        <v>218552</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5291340120828064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4745422282084348</v>
+        <v>0.4762164543305389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5811841085733923</v>
+        <v>0.5800331512476633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>392</v>
@@ -5829,19 +5829,19 @@
         <v>410926</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>381649</v>
+        <v>385220</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>438303</v>
+        <v>437957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5778553352305134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5366849400605024</v>
+        <v>0.5417068760154133</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6163526144755649</v>
+        <v>0.6158663825286922</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>122778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104522</v>
+        <v>104748</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140720</v>
+        <v>140605</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3672352489552976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.312630064453248</v>
+        <v>0.3133061423881073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4209015692096423</v>
+        <v>0.4205582975009539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>168</v>
@@ -5879,19 +5879,19 @@
         <v>177419</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>157807</v>
+        <v>158241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>197989</v>
+        <v>197358</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4708659879171935</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4188158914266077</v>
+        <v>0.4199668487523364</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5254577717915653</v>
+        <v>0.5237835456694611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>286</v>
@@ -5900,19 +5900,19 @@
         <v>300197</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>272820</v>
+        <v>273166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329474</v>
+        <v>325903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4221446647694866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3836473855244352</v>
+        <v>0.3841336174713078</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4633150599394979</v>
+        <v>0.4582931239845865</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>146586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131115</v>
+        <v>132291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160567</v>
+        <v>160995</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5742339069508299</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5136276345924934</v>
+        <v>0.5182315416895523</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6289996006084788</v>
+        <v>0.630679469450009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>159</v>
@@ -6025,19 +6025,19 @@
         <v>212545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189902</v>
+        <v>189663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>235181</v>
+        <v>235958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5401595133612703</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4826161238943905</v>
+        <v>0.4820089156557587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5976866380861918</v>
+        <v>0.5996625857802066</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>333</v>
@@ -6046,19 +6046,19 @@
         <v>359131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334288</v>
+        <v>332500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>385820</v>
+        <v>384809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.553567106235149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5152740651290503</v>
+        <v>0.5125183919660983</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5947056982855229</v>
+        <v>0.5931479735476914</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>108687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94706</v>
+        <v>94278</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124158</v>
+        <v>122982</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4257660930491701</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3710003993915212</v>
+        <v>0.3693205305499908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4863723654075067</v>
+        <v>0.4817684583104474</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>137</v>
@@ -6096,19 +6096,19 @@
         <v>180940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>158304</v>
+        <v>157527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>203583</v>
+        <v>203822</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4598404866387297</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4023133619138081</v>
+        <v>0.4003374142197925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5173838761056093</v>
+        <v>0.5179910843442411</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>263</v>
@@ -6117,19 +6117,19 @@
         <v>289627</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>262938</v>
+        <v>263949</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>314470</v>
+        <v>316258</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4464328937648509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4052943017144772</v>
+        <v>0.4068520264523085</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4847259348709498</v>
+        <v>0.4874816080339017</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2600963</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7677928238981824</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2408</v>
@@ -6242,19 +6242,19 @@
         <v>2523098</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7147581359444263</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4886</v>
@@ -6263,19 +6263,19 @@
         <v>5124061</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.740729544728754</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>786621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>740497</v>
+        <v>735930</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>839108</v>
+        <v>840108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2322071761018176</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2185916074531188</v>
+        <v>0.2172433561607853</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2477010751105728</v>
+        <v>0.2479962988855136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>917</v>
@@ -6313,19 +6313,19 @@
         <v>1006904</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>951137</v>
+        <v>951954</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1059599</v>
+        <v>1063569</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2852418640555737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2694438467051394</v>
+        <v>0.2696751715542989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3001694791170503</v>
+        <v>0.3012940722239597</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1664</v>
@@ -6334,19 +6334,19 @@
         <v>1793526</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1719124</v>
+        <v>1720423</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1863999</v>
+        <v>1868657</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.259270455271246</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2485149825492851</v>
+        <v>0.2487027596238129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.269457914072071</v>
+        <v>0.270131333701351</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>350085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>328929</v>
+        <v>328646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365899</v>
+        <v>365613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9119849552176854</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8568742556185431</v>
+        <v>0.8561369356569628</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9531817791693435</v>
+        <v>0.9524363028699928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -6702,19 +6702,19 @@
         <v>296578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>275918</v>
+        <v>275144</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314694</v>
+        <v>314921</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8353947050108008</v>
+        <v>0.8353947050108006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7772005741935991</v>
+        <v>0.7750201629824037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.886425613382764</v>
+        <v>0.8870642286564587</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -6723,19 +6723,19 @@
         <v>646662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>616051</v>
+        <v>615951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>670997</v>
+        <v>669305</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8751853721118138</v>
+        <v>0.8751853721118139</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8337564566575891</v>
+        <v>0.8336218172499856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9081194048300535</v>
+        <v>0.9058292999554286</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>33786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17972</v>
+        <v>18258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54942</v>
+        <v>55225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0880150447823147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04681822083065633</v>
+        <v>0.04756369713000757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1431257443814569</v>
+        <v>0.1438630643430376</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -6773,19 +6773,19 @@
         <v>58437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40321</v>
+        <v>40094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79097</v>
+        <v>79871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1646052949891992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.113574386617236</v>
+        <v>0.1129357713435414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2227994258064009</v>
+        <v>0.2249798370175962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -6794,19 +6794,19 @@
         <v>92224</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67889</v>
+        <v>69581</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122835</v>
+        <v>122935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1248146278881862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09188059516994651</v>
+        <v>0.09417070004457147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.166243543342411</v>
+        <v>0.1663781827500143</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>393448</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>371850</v>
+        <v>370566</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>412408</v>
+        <v>410052</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8546772969669556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8077593237010966</v>
+        <v>0.8049719730584022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.895863853375225</v>
+        <v>0.8907448754079125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>362</v>
@@ -6919,19 +6919,19 @@
         <v>392715</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>372582</v>
+        <v>374265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>411098</v>
+        <v>411588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8028577026863881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.761699235595504</v>
+        <v>0.7651400693300964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.840440163123493</v>
+        <v>0.8414429488314452</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>615</v>
@@ -6940,19 +6940,19 @@
         <v>786163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>756828</v>
+        <v>755553</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>812881</v>
+        <v>810267</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8279816165826747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7970862749878538</v>
+        <v>0.7957431033350135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8561208572530121</v>
+        <v>0.8533682908661319</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>66899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47939</v>
+        <v>50295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88497</v>
+        <v>89781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1453227030330446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1041361466247751</v>
+        <v>0.1092551245920876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1922406762989035</v>
+        <v>0.1950280269415979</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -6990,19 +6990,19 @@
         <v>96431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78048</v>
+        <v>77558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>116564</v>
+        <v>114881</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1971422973136119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1595598368765069</v>
+        <v>0.1585570511685548</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2383007644044958</v>
+        <v>0.2348599306699042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>131</v>
@@ -7011,19 +7011,19 @@
         <v>163330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136612</v>
+        <v>139226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>192665</v>
+        <v>193940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1720183834173253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1438791427469876</v>
+        <v>0.1466317091338682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2029137250121461</v>
+        <v>0.2042568966649864</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>486038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>464130</v>
+        <v>464662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>506859</v>
+        <v>506311</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8024300771055047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7662613497993374</v>
+        <v>0.767139926004952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8368054411711867</v>
+        <v>0.8359002509105913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>622</v>
@@ -7136,19 +7136,19 @@
         <v>458004</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>441882</v>
+        <v>438881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>475794</v>
+        <v>475033</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7668952897007966</v>
+        <v>0.7668952897007963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7399008799743605</v>
+        <v>0.7348764243008588</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7966833797757168</v>
+        <v>0.7954092502344002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1050</v>
@@ -7157,19 +7157,19 @@
         <v>944041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>914988</v>
+        <v>916534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>969267</v>
+        <v>970375</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7847880748860494</v>
+        <v>0.7847880748860493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7606358200941585</v>
+        <v>0.761921413477273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8057582388882282</v>
+        <v>0.8066798481008196</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>119669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98848</v>
+        <v>99396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141577</v>
+        <v>141045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1975699228944952</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1631945588288132</v>
+        <v>0.1640997490894084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2337386502006627</v>
+        <v>0.232860073995048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>194</v>
@@ -7207,19 +7207,19 @@
         <v>139214</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121424</v>
+        <v>122185</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155336</v>
+        <v>158337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2331047102992036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2033166202242832</v>
+        <v>0.2045907497655999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2600991200256393</v>
+        <v>0.2651235756991413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>301</v>
@@ -7228,19 +7228,19 @@
         <v>258884</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233658</v>
+        <v>232550</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>287937</v>
+        <v>286391</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2152119251139505</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1942417611117718</v>
+        <v>0.1933201518991803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2393641799058416</v>
+        <v>0.238078586522727</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>494555</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>468048</v>
+        <v>469994</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>518163</v>
+        <v>519682</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7220427365970007</v>
+        <v>0.7220427365970009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6833429936625942</v>
+        <v>0.6861842978026285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7565103460026313</v>
+        <v>0.758728241909309</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>792</v>
@@ -7353,19 +7353,19 @@
         <v>516585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>494882</v>
+        <v>496488</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>534419</v>
+        <v>535461</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7147424675380319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6847138737314017</v>
+        <v>0.6869368533674204</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7394167991284256</v>
+        <v>0.7408592892440293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1264</v>
@@ -7374,19 +7374,19 @@
         <v>1011140</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>981031</v>
+        <v>982800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1043344</v>
+        <v>1039766</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7182945388206786</v>
+        <v>0.7182945388206785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6969051823778404</v>
+        <v>0.6981621011072136</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7411714663810384</v>
+        <v>0.7386293408871746</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>190383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166775</v>
+        <v>165256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216890</v>
+        <v>214944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2779572634029993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2434896539973689</v>
+        <v>0.2412717580906907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3166570063374059</v>
+        <v>0.3138157021973715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -7424,19 +7424,19 @@
         <v>206172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>188338</v>
+        <v>187296</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>227875</v>
+        <v>226269</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.285257532461968</v>
+        <v>0.2852575324619681</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2605832008715744</v>
+        <v>0.2591407107559705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3152861262685986</v>
+        <v>0.3130631466325796</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>510</v>
@@ -7445,19 +7445,19 @@
         <v>396556</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>364352</v>
+        <v>367930</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>426665</v>
+        <v>424896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2817054611793215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2588285336189616</v>
+        <v>0.2613706591128253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3030948176221597</v>
+        <v>0.3018378988927863</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>421482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>400083</v>
+        <v>400967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>444247</v>
+        <v>443962</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.710240821608473</v>
+        <v>0.7102408216084731</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6741818983283102</v>
+        <v>0.6756716350948468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.748602281270732</v>
+        <v>0.7481228767381919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>583</v>
@@ -7570,19 +7570,19 @@
         <v>360415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>342063</v>
+        <v>342449</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>379581</v>
+        <v>378551</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6121296246063009</v>
+        <v>0.6121296246063008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5809604574550694</v>
+        <v>0.5816166872833591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6446820537407809</v>
+        <v>0.6429319464335504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1043</v>
@@ -7591,19 +7591,19 @@
         <v>781896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>750105</v>
+        <v>756807</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>808216</v>
+        <v>809651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6613780485710005</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6344867723721827</v>
+        <v>0.6401560086527952</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6836409705080765</v>
+        <v>0.6848548207708788</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>171953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149188</v>
+        <v>149473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193352</v>
+        <v>192468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.289759178391527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.251397718729268</v>
+        <v>0.2518771232618081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3258181016716898</v>
+        <v>0.3243283649051532</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>389</v>
@@ -7641,19 +7641,19 @@
         <v>228373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209207</v>
+        <v>210237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>246725</v>
+        <v>246339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3878703753936991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.355317946259219</v>
+        <v>0.3570680535664498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4190395425449306</v>
+        <v>0.4183833127166409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>578</v>
@@ -7662,19 +7662,19 @@
         <v>400327</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374007</v>
+        <v>372572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>432118</v>
+        <v>425416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3386219514289994</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3163590294919241</v>
+        <v>0.3151451792291217</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3655132276278175</v>
+        <v>0.359843991347205</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>260761</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>243608</v>
+        <v>244078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>275474</v>
+        <v>276361</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6507745420030596</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.607964741984077</v>
+        <v>0.6091370360816016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6874927103737105</v>
+        <v>0.6897058542748936</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>469</v>
@@ -7787,19 +7787,19 @@
         <v>256824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>241617</v>
+        <v>243052</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>271223</v>
+        <v>270840</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5983009537875433</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5628752122787199</v>
+        <v>0.5662191709082375</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6318470257761287</v>
+        <v>0.6309533651365399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>835</v>
@@ -7808,19 +7808,19 @@
         <v>517585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>495618</v>
+        <v>493905</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>538097</v>
+        <v>536877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6236348639907722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5971663293805133</v>
+        <v>0.595102710264487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6483489148769199</v>
+        <v>0.6468798251893845</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>139933</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125220</v>
+        <v>124333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157086</v>
+        <v>156616</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3492254579969403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3125072896262895</v>
+        <v>0.3102941457251063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3920352580159231</v>
+        <v>0.390862963918398</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -7858,19 +7858,19 @@
         <v>172431</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158032</v>
+        <v>158415</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>187638</v>
+        <v>186203</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4016990462124567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3681529742238713</v>
+        <v>0.3690466348634602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.43712478772128</v>
+        <v>0.4337808290917626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>537</v>
@@ -7879,19 +7879,19 @@
         <v>312364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>291852</v>
+        <v>293072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>334331</v>
+        <v>336044</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3763651360092279</v>
+        <v>0.3763651360092278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.35165108512308</v>
+        <v>0.3531201748106156</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4028336706194867</v>
+        <v>0.4048972897355133</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>181870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>168180</v>
+        <v>167110</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>196450</v>
+        <v>194475</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6072616943433263</v>
+        <v>0.6072616943433262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5615517537914566</v>
+        <v>0.5579797510960807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.655943045551837</v>
+        <v>0.6493505614799012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>424</v>
@@ -8004,19 +8004,19 @@
         <v>229408</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>213485</v>
+        <v>213903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244757</v>
+        <v>244558</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5197027532543587</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4836295657304572</v>
+        <v>0.4845766082674349</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5544743812248207</v>
+        <v>0.5540231570366432</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>692</v>
@@ -8025,19 +8025,19 @@
         <v>411279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391162</v>
+        <v>390816</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>433287</v>
+        <v>433249</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5550957904060252</v>
+        <v>0.5550957904060253</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5279440602663937</v>
+        <v>0.5274777914845499</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5847999471569558</v>
+        <v>0.5847482936573056</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>117622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103042</v>
+        <v>105017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>131312</v>
+        <v>132382</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3927383056566738</v>
+        <v>0.3927383056566737</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.344056954448163</v>
+        <v>0.3506494385200986</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4384482462085436</v>
+        <v>0.4420202489039194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>411</v>
@@ -8075,19 +8075,19 @@
         <v>212014</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>196665</v>
+        <v>196864</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>227937</v>
+        <v>227519</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4802972467456412</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4455256187751793</v>
+        <v>0.4459768429633569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5163704342695428</v>
+        <v>0.5154233917325657</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>588</v>
@@ -8096,19 +8096,19 @@
         <v>329636</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>307628</v>
+        <v>307666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>349753</v>
+        <v>350099</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4449042095939746</v>
+        <v>0.4449042095939748</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4152000528430441</v>
+        <v>0.4152517063426944</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4720559397336063</v>
+        <v>0.4725222085154501</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>2588239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3425</v>
@@ -8221,19 +8221,19 @@
         <v>2510528</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5824</v>
@@ -8242,19 +8242,19 @@
         <v>5098767</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>840246</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>785183</v>
+        <v>790827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>892192</v>
+        <v>897296</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2450780226717041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2290175119960609</v>
+        <v>0.2306638121045545</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2602292004054756</v>
+        <v>0.2617179488535311</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1783</v>
@@ -8292,19 +8292,19 @@
         <v>1113074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1066079</v>
+        <v>1061514</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1166327</v>
+        <v>1156910</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3071732958456827</v>
+        <v>0.3071732958456826</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2942042599296658</v>
+        <v>0.2929444481281129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3218693761882977</v>
+        <v>0.3192707727500052</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2689</v>
@@ -8313,19 +8313,19 @@
         <v>1953320</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1877729</v>
+        <v>1880557</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2021206</v>
+        <v>2022490</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2769846850682214</v>
+        <v>0.2769846850682213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2662657736395296</v>
+        <v>0.2666667373365597</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2866110853565091</v>
+        <v>0.2867931468849968</v>
       </c>
     </row>
     <row r="27">
